--- a/cleaning/clean_vars.xlsx
+++ b/cleaning/clean_vars.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="404">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="400">
   <si>
     <t xml:space="preserve">vars</t>
   </si>
@@ -28,10 +28,10 @@
     <t xml:space="preserve">AGE2</t>
   </si>
   <si>
-    <t xml:space="preserve">SERVICE </t>
-  </si>
-  <si>
-    <t xml:space="preserve">MILSTAT </t>
+    <t xml:space="preserve">SERVICE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MILSTAT</t>
   </si>
   <si>
     <t xml:space="preserve">ACTDEVER</t>
@@ -46,43 +46,43 @@
     <t xml:space="preserve">ACTD7590</t>
   </si>
   <si>
-    <t xml:space="preserve">ACTDVIET </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACTDPRIV </t>
-  </si>
-  <si>
-    <t xml:space="preserve">COMBATPY </t>
-  </si>
-  <si>
-    <t xml:space="preserve">HEALTH </t>
-  </si>
-  <si>
-    <t xml:space="preserve">MOVSINPYR2 </t>
+    <t xml:space="preserve">ACTDVIET</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACTDPRIV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COMBATPY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HEALTH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MOVSINPYR2</t>
   </si>
   <si>
     <t xml:space="preserve">SEXATRACT</t>
   </si>
   <si>
-    <t xml:space="preserve">SEXIDENT </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SPEAKENGL </t>
+    <t xml:space="preserve">SEXIDENT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPEAKENGL</t>
   </si>
   <si>
     <t xml:space="preserve">DIFFHEAR</t>
   </si>
   <si>
-    <t xml:space="preserve">DIFFSEE </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DIFFTHINK </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DIFFWALK </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DIFFDRESS </t>
+    <t xml:space="preserve">DIFFSEE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIFFTHINK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIFFWALK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIFFDRESS</t>
   </si>
   <si>
     <t xml:space="preserve">DIFFERAND</t>
@@ -91,91 +91,91 @@
     <t xml:space="preserve">IRSEX</t>
   </si>
   <si>
-    <t xml:space="preserve">IRMARITSTAT </t>
+    <t xml:space="preserve">IRMARITSTAT</t>
   </si>
   <si>
     <t xml:space="preserve">IIMARITSTAT</t>
   </si>
   <si>
-    <t xml:space="preserve">IREDUHIGHST2 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">IIEDUHIGHST2 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CATAGE </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CATAG2 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CATAG3 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CATAG6 </t>
+    <t xml:space="preserve">IREDUHIGHST2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IIEDUHIGHST2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CATAGE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CATAG2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CATAG3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CATAG6</t>
   </si>
   <si>
     <t xml:space="preserve">CATAG7</t>
   </si>
   <si>
-    <t xml:space="preserve">PREGAGE2 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SEXAGE </t>
-  </si>
-  <si>
-    <t xml:space="preserve">NEWRACE2 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SEXRACE </t>
+    <t xml:space="preserve">PREGAGE2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SEXAGE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NEWRACE2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SEXRACE</t>
   </si>
   <si>
     <t xml:space="preserve">EDUHIGHCAT</t>
   </si>
   <si>
-    <t xml:space="preserve">HEALTH2 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">EDUENROLL </t>
+    <t xml:space="preserve">HEALTH2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EDUENROLL</t>
   </si>
   <si>
     <t xml:space="preserve">EDUGRDNOW2</t>
   </si>
   <si>
-    <t xml:space="preserve">EDUFULPRT </t>
-  </si>
-  <si>
-    <t xml:space="preserve">EDUSICKMO </t>
-  </si>
-  <si>
-    <t xml:space="preserve">EDUSKIPMO </t>
-  </si>
-  <si>
-    <t xml:space="preserve">MARIEDNUM2 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">MILFAMILY </t>
-  </si>
-  <si>
-    <t xml:space="preserve">MILSPOUSE </t>
-  </si>
-  <si>
-    <t xml:space="preserve">MILPARTNR </t>
+    <t xml:space="preserve">EDUFULPRT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EDUSICKMO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EDUSKIPMO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MARIEDNUM2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MILFAMILY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MILSPOUSE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MILPARTNR</t>
   </si>
   <si>
     <t xml:space="preserve">MILMOTHER</t>
   </si>
   <si>
-    <t xml:space="preserve">MILFATHER </t>
-  </si>
-  <si>
-    <t xml:space="preserve">MILSON </t>
-  </si>
-  <si>
-    <t xml:space="preserve">MILDAUGHT </t>
-  </si>
-  <si>
-    <t xml:space="preserve">MILBROTHR </t>
+    <t xml:space="preserve">MILFATHER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MILSON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MILDAUGHT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MILBROTHR</t>
   </si>
   <si>
     <t xml:space="preserve">MILSISTER</t>
@@ -184,19 +184,19 @@
     <t xml:space="preserve">MILOTHFAM</t>
   </si>
   <si>
-    <t xml:space="preserve">COLLENRFT </t>
+    <t xml:space="preserve">COLLENRFT</t>
   </si>
   <si>
     <t xml:space="preserve">COLLENRST</t>
   </si>
   <si>
-    <t xml:space="preserve">WRKSTATWK2 </t>
+    <t xml:space="preserve">WRKSTATWK2</t>
   </si>
   <si>
     <t xml:space="preserve">WRKDPSTWK</t>
   </si>
   <si>
-    <t xml:space="preserve">WRKHADJOB </t>
+    <t xml:space="preserve">WRKHADJOB</t>
   </si>
   <si>
     <t xml:space="preserve">WRKDHRSWK2</t>
@@ -205,7 +205,7 @@
     <t xml:space="preserve">WRK35WKUS</t>
   </si>
   <si>
-    <t xml:space="preserve">WRKRSNNOT </t>
+    <t xml:space="preserve">WRKRSNNOT</t>
   </si>
   <si>
     <t xml:space="preserve">WRKRSNJOB</t>
@@ -220,25 +220,25 @@
     <t xml:space="preserve">WRKSELFEM</t>
   </si>
   <si>
-    <t xml:space="preserve">WRKNUMJOB2 </t>
+    <t xml:space="preserve">WRKNUMJOB2</t>
   </si>
   <si>
     <t xml:space="preserve">WRKNJBPYR</t>
   </si>
   <si>
-    <t xml:space="preserve">WRKNJBWKS </t>
-  </si>
-  <si>
-    <t xml:space="preserve">WRKLASTYR2 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">WRKSICKMO </t>
+    <t xml:space="preserve">WRKNJBWKS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WRKLASTYR2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WRKSICKMO</t>
   </si>
   <si>
     <t xml:space="preserve">WRKSKIPMO</t>
   </si>
   <si>
-    <t xml:space="preserve">WRKDRGPOL </t>
+    <t xml:space="preserve">WRKDRGPOL</t>
   </si>
   <si>
     <t xml:space="preserve">WRKDRGALB</t>
@@ -250,10 +250,10 @@
     <t xml:space="preserve">WRKDRGHLP</t>
   </si>
   <si>
-    <t xml:space="preserve">WRKTSTALC </t>
-  </si>
-  <si>
-    <t xml:space="preserve">WRKTSTDRG </t>
+    <t xml:space="preserve">WRKTSTALC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WRKTSTDRG</t>
   </si>
   <si>
     <t xml:space="preserve">WRKTSTHIR</t>
@@ -262,10 +262,10 @@
     <t xml:space="preserve">WRKTSTRDM</t>
   </si>
   <si>
-    <t xml:space="preserve">WRKTST1ST </t>
-  </si>
-  <si>
-    <t xml:space="preserve">WRKOKPREH </t>
+    <t xml:space="preserve">WRKTST1ST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WRKOKPREH</t>
   </si>
   <si>
     <t xml:space="preserve">WRKOKRAND</t>
@@ -274,22 +274,22 @@
     <t xml:space="preserve">IRWRKSTAT</t>
   </si>
   <si>
-    <t xml:space="preserve">IIWRKSTAT </t>
-  </si>
-  <si>
-    <t xml:space="preserve">II2WRKSTAT </t>
+    <t xml:space="preserve">IIWRKSTAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">II2WRKSTAT</t>
   </si>
   <si>
     <t xml:space="preserve">IRWRKSTAT18</t>
   </si>
   <si>
-    <t xml:space="preserve">IIWRKSTAT18 </t>
+    <t xml:space="preserve">IIWRKSTAT18</t>
   </si>
   <si>
     <t xml:space="preserve">II2WRKST18</t>
   </si>
   <si>
-    <t xml:space="preserve">EDFAM18 </t>
+    <t xml:space="preserve">EDFAM18</t>
   </si>
   <si>
     <t xml:space="preserve">IMOTHER</t>
@@ -304,13 +304,13 @@
     <t xml:space="preserve">IRKI17_2</t>
   </si>
   <si>
-    <t xml:space="preserve">IRHH65_2 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">IROTHHLT </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CELLNOTCL </t>
+    <t xml:space="preserve">IRHH65_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IROTHHLT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CELLNOTCL</t>
   </si>
   <si>
     <t xml:space="preserve">CELLWRKNG</t>
@@ -322,13 +322,13 @@
     <t xml:space="preserve">IRFAMSSI</t>
   </si>
   <si>
-    <t xml:space="preserve">IRFSTAMP </t>
+    <t xml:space="preserve">IRFSTAMP</t>
   </si>
   <si>
     <t xml:space="preserve">IRFAMPMT</t>
   </si>
   <si>
-    <t xml:space="preserve">IRFAMSVC </t>
+    <t xml:space="preserve">IRFAMSVC</t>
   </si>
   <si>
     <t xml:space="preserve">IRWELMOS</t>
@@ -346,19 +346,19 @@
     <t xml:space="preserve">INCOME</t>
   </si>
   <si>
-    <t xml:space="preserve">POVERTY3 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PDEN10 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">COUTYP4 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">COLDFLGR </t>
-  </si>
-  <si>
-    <t xml:space="preserve">COLDYRR </t>
+    <t xml:space="preserve">POVERTY3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PDEN10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COUTYP4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COLDFLGR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COLDYRR</t>
   </si>
   <si>
     <t xml:space="preserve">COLDMONR</t>
@@ -367,13 +367,13 @@
     <t xml:space="preserve">RSKCIGPKD</t>
   </si>
   <si>
-    <t xml:space="preserve">RSKMRJMON </t>
+    <t xml:space="preserve">RSKMRJMON</t>
   </si>
   <si>
     <t xml:space="preserve">RSKMRJWK</t>
   </si>
   <si>
-    <t xml:space="preserve">RSKLSDTRY </t>
+    <t xml:space="preserve">RSKLSDTRY</t>
   </si>
   <si>
     <t xml:space="preserve">RSKLSDWK</t>
@@ -391,16 +391,16 @@
     <t xml:space="preserve">RSKCOCWK</t>
   </si>
   <si>
-    <t xml:space="preserve">RSKBNGDLY </t>
-  </si>
-  <si>
-    <t xml:space="preserve">RSKBNGWK </t>
+    <t xml:space="preserve">RSKBNGDLY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RSKBNGWK</t>
   </si>
   <si>
     <t xml:space="preserve">DIFGETMRJ</t>
   </si>
   <si>
-    <t xml:space="preserve">DIFGETLSD </t>
+    <t xml:space="preserve">DIFGETLSD</t>
   </si>
   <si>
     <t xml:space="preserve">DIFGETCOC</t>
@@ -424,16 +424,10 @@
     <t xml:space="preserve">RKFQPBLT</t>
   </si>
   <si>
-    <t xml:space="preserve">RKFQDBLT </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BLNT30C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BLNT30C2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIGIRTBL </t>
+    <t xml:space="preserve">RKFQDBLT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIGIRTBL</t>
   </si>
   <si>
     <t xml:space="preserve">CIGCRAVE</t>
@@ -454,7 +448,7 @@
     <t xml:space="preserve">CIGFNLKE</t>
   </si>
   <si>
-    <t xml:space="preserve">CIGPLANE </t>
+    <t xml:space="preserve">CIGPLANE</t>
   </si>
   <si>
     <t xml:space="preserve">CIGRNOUT</t>
@@ -472,7 +466,7 @@
     <t xml:space="preserve">TRIMEST</t>
   </si>
   <si>
-    <t xml:space="preserve">BMI2 </t>
+    <t xml:space="preserve">BMI2</t>
   </si>
   <si>
     <t xml:space="preserve">NMERTMT2</t>
@@ -754,9 +748,6 @@
     <t xml:space="preserve">FRDMJMON</t>
   </si>
   <si>
-    <t xml:space="preserve">DFRDADLY2</t>
-  </si>
-  <si>
     <t xml:space="preserve">PRTALK3</t>
   </si>
   <si>
@@ -764,9 +755,6 @@
   </si>
   <si>
     <t xml:space="preserve">PREVIOL2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">YTHYACT2</t>
   </si>
   <si>
     <t xml:space="preserve">RLGATTD</t>
@@ -1246,6 +1234,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1359,10 +1348,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A404"/>
+  <dimension ref="A1:A400"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A238" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A246" activeCellId="0" sqref="A246"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3066,7 +3055,7 @@
       </c>
     </row>
     <row r="340" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A340" s="1" t="s">
+      <c r="A340" s="3" t="s">
         <v>339</v>
       </c>
     </row>
@@ -3086,7 +3075,7 @@
       </c>
     </row>
     <row r="344" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A344" s="3" t="s">
+      <c r="A344" s="1" t="s">
         <v>343</v>
       </c>
     </row>
@@ -3368,26 +3357,6 @@
     <row r="400" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A400" s="1" t="s">
         <v>399</v>
-      </c>
-    </row>
-    <row r="401" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A401" s="1" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="402" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A402" s="1" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="403" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A403" s="1" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="404" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A404" s="1" t="s">
-        <v>403</v>
       </c>
     </row>
   </sheetData>
